--- a/NformTester/NformTester/Keywordscripts/600.10.30.180_VerifyCopyDeviceFeature.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.180_VerifyCopyDeviceFeature.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7644" uniqueCount="859">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3760,10 +3760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to verify the copy device feature functionality .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3830,8 +3826,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_device_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Database Version</t>
+  </si>
+  <si>
+    <t>Managed device limit</t>
+  </si>
+  <si>
+    <t>Advanced Communications</t>
+  </si>
+  <si>
+    <t>Advanced Notification</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4000,7 +4026,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4010,6 +4036,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -4051,14 +4080,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
@@ -4382,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4473,7 +4503,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4567,7 +4597,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4591,7 +4621,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4606,7 +4636,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4626,10 +4656,10 @@
         <v>823</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>849</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>824</v>
@@ -4644,16 +4674,14 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>831</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4743,7 +4771,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4801,13 +4829,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4835,13 +4863,13 @@
         <v>7</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -4849,7 +4877,9 @@
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>850</v>
+      </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
@@ -4867,13 +4897,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>835</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>836</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -4881,7 +4911,9 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>851</v>
+      </c>
       <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
@@ -4899,10 +4931,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>553</v>
@@ -4914,7 +4946,9 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>852</v>
+      </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
@@ -4931,13 +4965,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4946,7 +4980,9 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>853</v>
+      </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
@@ -4975,8 +5011,12 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>808</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5005,8 +5045,10 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
@@ -5031,8 +5073,10 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5046,7 +5090,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="4"/>
@@ -5057,6 +5101,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>858</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5097,7 +5147,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="9"/>
@@ -5123,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="9"/>
@@ -5149,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="9"/>
@@ -5199,7 +5249,7 @@
         <v>56</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="9"/>
@@ -5249,13 +5299,13 @@
         <v>7</v>
       </c>
       <c r="H30" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>835</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>836</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -5279,10 +5329,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>553</v>
@@ -5337,7 +5387,7 @@
         <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5363,13 +5413,13 @@
         <v>7</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
